--- a/models/metrics_file.xlsx
+++ b/models/metrics_file.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -470,16 +470,16 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.8209382151029748</v>
+        <v>0.8375286041189931</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8091492026885638</v>
+        <v>0.830137567638939</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8209382151029748</v>
+        <v>0.8375286041189931</v>
       </c>
       <c r="F2" t="n">
-        <v>0.8058101942751692</v>
+        <v>0.8223752214706125</v>
       </c>
     </row>
     <row r="3">
@@ -492,16 +492,16 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.8981693363844394</v>
+        <v>0.9080854309687262</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8928830831601063</v>
+        <v>0.9033159174563196</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8981693363844394</v>
+        <v>0.9080854309687262</v>
       </c>
       <c r="F3" t="n">
-        <v>0.8907996501864544</v>
+        <v>0.9014633780570762</v>
       </c>
     </row>
     <row r="4">
@@ -514,16 +514,16 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.9948512585812357</v>
+        <v>0.9959954233409611</v>
       </c>
       <c r="D4" t="n">
-        <v>0.994877768119433</v>
+        <v>0.9960114599751793</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9948512585812357</v>
+        <v>0.9959954233409611</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9922835323617831</v>
+        <v>0.9939971522135932</v>
       </c>
     </row>
     <row r="5">
@@ -536,16 +536,16 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.7797482837528604</v>
+        <v>0.7791762013729977</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7790272637402382</v>
+        <v>0.7778073184435872</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7797482837528604</v>
+        <v>0.7791762013729977</v>
       </c>
       <c r="F5" t="n">
-        <v>0.7769774088138749</v>
+        <v>0.7768471823643884</v>
       </c>
     </row>
     <row r="6">
@@ -558,16 +558,16 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.9214340198321892</v>
+        <v>0.933066361556064</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8990931638600403</v>
+        <v>0.9195802350177146</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9214340198321892</v>
+        <v>0.933066361556064</v>
       </c>
       <c r="F6" t="n">
-        <v>0.8979007069022709</v>
+        <v>0.9143354502992973</v>
       </c>
     </row>
     <row r="7">
@@ -580,16 +580,16 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.9569031273836766</v>
+        <v>0.9527078565980168</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9497800943993424</v>
+        <v>0.9464978278504006</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9569031273836766</v>
+        <v>0.9527078565980168</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9427787910748311</v>
+        <v>0.937097180561184</v>
       </c>
     </row>
     <row r="8">
@@ -602,16 +602,16 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.9754004576659039</v>
+        <v>0.9704424103737604</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9725740331792153</v>
+        <v>0.9640851139706974</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9754004576659039</v>
+        <v>0.9704424103737604</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9655003885734043</v>
+        <v>0.9572957671642613</v>
       </c>
     </row>
     <row r="9">
@@ -624,16 +624,16 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.9830282227307399</v>
+        <v>0.9836003051106026</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9833162639544172</v>
+        <v>0.9838692551030679</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9830282227307399</v>
+        <v>0.9836003051106026</v>
       </c>
       <c r="F9" t="n">
-        <v>0.97461496070333</v>
+        <v>0.9754682510595054</v>
       </c>
     </row>
     <row r="10">
@@ -646,16 +646,16 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.9687261632341724</v>
+        <v>0.9654843630816171</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9595743783021039</v>
+        <v>0.9518696494835303</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9687261632341724</v>
+        <v>0.9654843630816171</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9566089940075601</v>
+        <v>0.9520672793097094</v>
       </c>
     </row>
     <row r="11">
@@ -668,16 +668,16 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.9588100686498856</v>
+        <v>0.9612890922959573</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9544964844289757</v>
+        <v>0.9572450669015721</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9588100686498856</v>
+        <v>0.9612890922959573</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9537330151343557</v>
+        <v>0.9574124397570783</v>
       </c>
     </row>
     <row r="12">
@@ -690,16 +690,16 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.9452707856598017</v>
+        <v>0.9406941266209001</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9423527970314362</v>
+        <v>0.9366306539639554</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9452707856598017</v>
+        <v>0.9406941266209001</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9410011849045622</v>
+        <v>0.9367901536652637</v>
       </c>
     </row>
     <row r="13">
@@ -712,16 +712,16 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.9412662090007627</v>
+        <v>0.9441266209000763</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9358874940488793</v>
+        <v>0.9394307573796159</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9412662090007627</v>
+        <v>0.9441266209000763</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9335194556503968</v>
+        <v>0.9359965319049026</v>
       </c>
     </row>
     <row r="14">
@@ -734,16 +734,16 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.9855072463768116</v>
+        <v>0.9858886346300534</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9830925272432696</v>
+        <v>0.9821814034766304</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9855072463768116</v>
+        <v>0.9858886346300534</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9809921842760914</v>
+        <v>0.9819931443009149</v>
       </c>
     </row>
     <row r="15">
@@ -756,16 +756,16 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.9769260106788711</v>
+        <v>0.9794050343249427</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9703398972374188</v>
+        <v>0.9769738170348974</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9769260106788711</v>
+        <v>0.9794050343249427</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9679674616951762</v>
+        <v>0.9713952783708385</v>
       </c>
     </row>
     <row r="16">
@@ -778,16 +778,16 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.9876048817696415</v>
+        <v>0.9889397406559878</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9877585207255861</v>
+        <v>0.9890620933246798</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9876048817696415</v>
+        <v>0.9889397406559878</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9814459719245847</v>
+        <v>0.9836247069367018</v>
       </c>
     </row>
     <row r="17">
@@ -800,16 +800,16 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.9645308924485125</v>
+        <v>0.9683447749809306</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9533683142747866</v>
+        <v>0.9636961223913156</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9645308924485125</v>
+        <v>0.9683447749809306</v>
       </c>
       <c r="F17" t="n">
-        <v>0.949053977707471</v>
+        <v>0.9546584369122239</v>
       </c>
     </row>
     <row r="18">
@@ -822,16 +822,16 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.9672006102212052</v>
+        <v>0.9635774218154081</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9639292545033773</v>
+        <v>0.9595406342698973</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9672006102212052</v>
+        <v>0.9635774218154081</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9584281872221785</v>
+        <v>0.9533977106879298</v>
       </c>
     </row>
     <row r="19">
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.8754767353165522</v>
+        <v>0.873951182303585</v>
       </c>
       <c r="D19" t="n">
-        <v>0.8466528052176668</v>
+        <v>0.8497714072831241</v>
       </c>
       <c r="E19" t="n">
-        <v>0.8754767353165522</v>
+        <v>0.873951182303585</v>
       </c>
       <c r="F19" t="n">
-        <v>0.8390753857260942</v>
+        <v>0.8338823737611161</v>
       </c>
     </row>
     <row r="20">
@@ -866,16 +866,16 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.9334477498093059</v>
+        <v>0.936880244088482</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9076617474083348</v>
+        <v>0.9171196594819329</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9334477498093059</v>
+        <v>0.936880244088482</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9053511408413939</v>
+        <v>0.909526059240098</v>
       </c>
     </row>
     <row r="21">
@@ -888,16 +888,16 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.9588100686498856</v>
+        <v>0.9607170099160945</v>
       </c>
       <c r="D21" t="n">
-        <v>0.950315604485095</v>
+        <v>0.957308156077583</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9588100686498856</v>
+        <v>0.9607170099160945</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9438789056211344</v>
+        <v>0.9461394883048011</v>
       </c>
     </row>
     <row r="22">
@@ -910,16 +910,16 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.9586193745232647</v>
+        <v>0.9588100686498856</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9534824095245162</v>
+        <v>0.9514530315340987</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9586193745232647</v>
+        <v>0.9588100686498856</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9476040477261897</v>
+        <v>0.9489774683228951</v>
       </c>
     </row>
     <row r="23">
@@ -932,16 +932,16 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.9832189168573608</v>
+        <v>0.9807398932112891</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9803457190791426</v>
+        <v>0.9768986837335316</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9832189168573608</v>
+        <v>0.9807398932112891</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9771421509927816</v>
+        <v>0.9732673543363756</v>
       </c>
     </row>
     <row r="24">
@@ -954,16 +954,16 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.9948512585812357</v>
+        <v>0.9931350114416476</v>
       </c>
       <c r="D24" t="n">
-        <v>0.994877768119433</v>
+        <v>0.993182139509554</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9948512585812357</v>
+        <v>0.9931350114416476</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9922835323617831</v>
+        <v>0.9897143397604479</v>
       </c>
     </row>
     <row r="25">
@@ -976,16 +976,16 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.9876048817696415</v>
+        <v>0.9897025171624714</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9877585207255861</v>
+        <v>0.9798866615659716</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9876048817696415</v>
+        <v>0.9897025171624714</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9814459719245847</v>
+        <v>0.9847701296895512</v>
       </c>
     </row>
     <row r="26">
@@ -998,16 +998,16 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.9956140350877193</v>
+        <v>0.9952326468344775</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9956332717759311</v>
+        <v>0.9952553744906822</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9956140350877193</v>
+        <v>0.9952326468344775</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9934258723732408</v>
+        <v>0.9928546657419742</v>
       </c>
     </row>
     <row r="27">
@@ -1020,16 +1020,16 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.988558352402746</v>
+        <v>0.990465293668955</v>
       </c>
       <c r="D27" t="n">
-        <v>0.9886892637024858</v>
+        <v>0.9905562042937743</v>
       </c>
       <c r="E27" t="n">
-        <v>0.988558352402746</v>
+        <v>0.990465293668955</v>
       </c>
       <c r="F27" t="n">
-        <v>0.9828704447364472</v>
+        <v>0.9857207770294218</v>
       </c>
     </row>
     <row r="28">
@@ -1042,16 +1042,16 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.956140350877193</v>
+        <v>0.9557589626239512</v>
       </c>
       <c r="D28" t="n">
-        <v>0.9371345029239766</v>
+        <v>0.9480073465504215</v>
       </c>
       <c r="E28" t="n">
-        <v>0.956140350877193</v>
+        <v>0.9557589626239512</v>
       </c>
       <c r="F28" t="n">
-        <v>0.9368519769619229</v>
+        <v>0.9357494494700589</v>
       </c>
     </row>
     <row r="29">
@@ -1064,16 +1064,16 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.8657513348588863</v>
+        <v>0.8710907704042715</v>
       </c>
       <c r="D29" t="n">
-        <v>0.8645570434472037</v>
+        <v>0.870557247257468</v>
       </c>
       <c r="E29" t="n">
-        <v>0.8657513348588863</v>
+        <v>0.8710907704042715</v>
       </c>
       <c r="F29" t="n">
-        <v>0.8590903042914866</v>
+        <v>0.864849965500176</v>
       </c>
     </row>
     <row r="30">
@@ -1086,16 +1086,16 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0.9479405034324943</v>
+        <v>0.9464149504195271</v>
       </c>
       <c r="D30" t="n">
-        <v>0.9472749314814446</v>
+        <v>0.9461331094188488</v>
       </c>
       <c r="E30" t="n">
-        <v>0.9479405034324943</v>
+        <v>0.9464149504195271</v>
       </c>
       <c r="F30" t="n">
-        <v>0.9385945748685791</v>
+        <v>0.9367301435516877</v>
       </c>
     </row>
     <row r="31">
@@ -1108,16 +1108,16 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0.9374523264683448</v>
+        <v>0.9315408085430968</v>
       </c>
       <c r="D31" t="n">
-        <v>0.9303526725026958</v>
+        <v>0.9239993681313369</v>
       </c>
       <c r="E31" t="n">
-        <v>0.9374523264683448</v>
+        <v>0.9315408085430968</v>
       </c>
       <c r="F31" t="n">
-        <v>0.929797799215219</v>
+        <v>0.9219083893364928</v>
       </c>
     </row>
     <row r="32">
@@ -1130,16 +1130,16 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0.988367658276125</v>
+        <v>0.9912280701754386</v>
       </c>
       <c r="D32" t="n">
-        <v>0.9885029954581118</v>
+        <v>0.9885032654140598</v>
       </c>
       <c r="E32" t="n">
-        <v>0.988367658276125</v>
+        <v>0.9912280701754386</v>
       </c>
       <c r="F32" t="n">
-        <v>0.982770160029762</v>
+        <v>0.9873869095040725</v>
       </c>
     </row>
     <row r="33">
@@ -1152,16 +1152,16 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0.9603356216628528</v>
+        <v>0.9605263157894737</v>
       </c>
       <c r="D33" t="n">
-        <v>0.9585110352294142</v>
+        <v>0.9586272939750693</v>
       </c>
       <c r="E33" t="n">
-        <v>0.9603356216628528</v>
+        <v>0.9605263157894737</v>
       </c>
       <c r="F33" t="n">
-        <v>0.9577231839148226</v>
+        <v>0.9581335039687298</v>
       </c>
     </row>
     <row r="34">
@@ -1174,16 +1174,16 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0.9792143401983219</v>
+        <v>0.9794050343249427</v>
       </c>
       <c r="D34" t="n">
-        <v>0.9732969143655366</v>
+        <v>0.9798298349920371</v>
       </c>
       <c r="E34" t="n">
-        <v>0.9792143401983219</v>
+        <v>0.9794050343249427</v>
       </c>
       <c r="F34" t="n">
-        <v>0.9713377707929418</v>
+        <v>0.9705435657957914</v>
       </c>
     </row>
     <row r="35">
@@ -1196,16 +1196,16 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0.9464149504195271</v>
+        <v>0.9496567505720824</v>
       </c>
       <c r="D35" t="n">
-        <v>0.9238678605898691</v>
+        <v>0.9411202590865966</v>
       </c>
       <c r="E35" t="n">
-        <v>0.9464149504195271</v>
+        <v>0.9496567505720824</v>
       </c>
       <c r="F35" t="n">
-        <v>0.9250009171852259</v>
+        <v>0.9267559445026519</v>
       </c>
     </row>
     <row r="36">
@@ -1218,16 +1218,16 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0.8663234172387491</v>
+        <v>0.8775743707093822</v>
       </c>
       <c r="D36" t="n">
-        <v>0.8573305841002861</v>
+        <v>0.8699203147894478</v>
       </c>
       <c r="E36" t="n">
-        <v>0.8663234172387491</v>
+        <v>0.8775743707093822</v>
       </c>
       <c r="F36" t="n">
-        <v>0.8556872346216303</v>
+        <v>0.8666279870380813</v>
       </c>
     </row>
   </sheetData>

--- a/models/metrics_file.xlsx
+++ b/models/metrics_file.xlsx
@@ -470,16 +470,16 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.8375286041189931</v>
+        <v>0.8194126620900076</v>
       </c>
       <c r="D2" t="n">
-        <v>0.830137567638939</v>
+        <v>0.8092311618961743</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8375286041189931</v>
+        <v>0.8194126620900076</v>
       </c>
       <c r="F2" t="n">
-        <v>0.8223752214706125</v>
+        <v>0.8036018981868304</v>
       </c>
     </row>
     <row r="3">
@@ -492,16 +492,16 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.9080854309687262</v>
+        <v>0.9126620900076278</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9033159174563196</v>
+        <v>0.9083635286136263</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9080854309687262</v>
+        <v>0.9126620900076278</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9014633780570762</v>
+        <v>0.9070947690668929</v>
       </c>
     </row>
     <row r="4">
@@ -514,16 +514,16 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.9959954233409611</v>
+        <v>0.9944698703279939</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9960114599751793</v>
+        <v>0.9945004526621831</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9959954233409611</v>
+        <v>0.9944698703279939</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9939971522135932</v>
+        <v>0.9917124722746894</v>
       </c>
     </row>
     <row r="5">
@@ -536,16 +536,16 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.7791762013729977</v>
+        <v>0.7841342486651411</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7778073184435872</v>
+        <v>0.7827531428937272</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7791762013729977</v>
+        <v>0.7841342486651411</v>
       </c>
       <c r="F5" t="n">
-        <v>0.7768471823643884</v>
+        <v>0.7817840011395607</v>
       </c>
     </row>
     <row r="6">
@@ -558,16 +558,16 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.933066361556064</v>
+        <v>0.9250572082379863</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9195802350177146</v>
+        <v>0.9073559152752986</v>
       </c>
       <c r="E6" t="n">
-        <v>0.933066361556064</v>
+        <v>0.9250572082379863</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9143354502992973</v>
+        <v>0.9037099821109237</v>
       </c>
     </row>
     <row r="7">
@@ -580,16 +580,16 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.9527078565980168</v>
+        <v>0.9555682684973302</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9464978278504006</v>
+        <v>0.9489041095284556</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9527078565980168</v>
+        <v>0.9555682684973302</v>
       </c>
       <c r="F7" t="n">
-        <v>0.937097180561184</v>
+        <v>0.9428646393510877</v>
       </c>
     </row>
     <row r="8">
@@ -602,16 +602,16 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.9704424103737604</v>
+        <v>0.9742562929061785</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9640851139706974</v>
+        <v>0.9717691899278484</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9704424103737604</v>
+        <v>0.9742562929061785</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9572957671642613</v>
+        <v>0.964074742602445</v>
       </c>
     </row>
     <row r="9">
@@ -624,16 +624,16 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.9836003051106026</v>
+        <v>0.9818840579710145</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9838692551030679</v>
+        <v>0.9822122453266121</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9836003051106026</v>
+        <v>0.9818840579710145</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9754682510595054</v>
+        <v>0.9729088837665262</v>
       </c>
     </row>
     <row r="10">
@@ -646,16 +646,16 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.9654843630816171</v>
+        <v>0.9687261632341724</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9518696494835303</v>
+        <v>0.9570251969241007</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9654843630816171</v>
+        <v>0.9687261632341724</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9520672793097094</v>
+        <v>0.9563732405209623</v>
       </c>
     </row>
     <row r="11">
@@ -668,16 +668,16 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.9612890922959573</v>
+        <v>0.9616704805491991</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9572450669015721</v>
+        <v>0.9578122629606927</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9612890922959573</v>
+        <v>0.9616704805491991</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9574124397570783</v>
+        <v>0.9578930108962237</v>
       </c>
     </row>
     <row r="12">
@@ -690,16 +690,16 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.9406941266209001</v>
+        <v>0.9437452326468345</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9366306539639554</v>
+        <v>0.940452628474751</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9406941266209001</v>
+        <v>0.9437452326468345</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9367901536652637</v>
+        <v>0.9389405536331312</v>
       </c>
     </row>
     <row r="13">
@@ -712,16 +712,16 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.9441266209000763</v>
+        <v>0.9492753623188406</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9394307573796159</v>
+        <v>0.9445319279592519</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9441266209000763</v>
+        <v>0.9492753623188406</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9359965319049026</v>
+        <v>0.9428526768264641</v>
       </c>
     </row>
     <row r="14">
@@ -734,16 +734,16 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.9858886346300534</v>
+        <v>0.9868421052631579</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9821814034766304</v>
+        <v>0.9857304466745773</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9858886346300534</v>
+        <v>0.9868421052631579</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9819931443009149</v>
+        <v>0.9818179391169111</v>
       </c>
     </row>
     <row r="15">
@@ -756,16 +756,16 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.9794050343249427</v>
+        <v>0.9759725400457666</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9769738170348974</v>
+        <v>0.9677757778416707</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9794050343249427</v>
+        <v>0.9759725400457666</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9713952783708385</v>
+        <v>0.9665940723770488</v>
       </c>
     </row>
     <row r="16">
@@ -778,16 +778,16 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.9889397406559878</v>
+        <v>0.9868421052631579</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9890620933246798</v>
+        <v>0.9870152684782718</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9889397406559878</v>
+        <v>0.9868421052631579</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9836247069367018</v>
+        <v>0.980492057908706</v>
       </c>
     </row>
     <row r="17">
@@ -800,16 +800,16 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.9683447749809306</v>
+        <v>0.967581998474447</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9636961223913156</v>
+        <v>0.9573283438476649</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9683447749809306</v>
+        <v>0.967581998474447</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9546584369122239</v>
+        <v>0.9535658691269763</v>
       </c>
     </row>
     <row r="18">
@@ -822,16 +822,16 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.9635774218154081</v>
+        <v>0.9689168573607932</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9595406342698973</v>
+        <v>0.9677112560990063</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9635774218154081</v>
+        <v>0.9689168573607932</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9533977106879298</v>
+        <v>0.9617445066986648</v>
       </c>
     </row>
     <row r="19">
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.873951182303585</v>
+        <v>0.8735697940503433</v>
       </c>
       <c r="D19" t="n">
-        <v>0.8497714072831241</v>
+        <v>0.8448609937847542</v>
       </c>
       <c r="E19" t="n">
-        <v>0.873951182303585</v>
+        <v>0.8735697940503433</v>
       </c>
       <c r="F19" t="n">
-        <v>0.8338823737611161</v>
+        <v>0.8347413442608785</v>
       </c>
     </row>
     <row r="20">
@@ -866,16 +866,16 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.936880244088482</v>
+        <v>0.9416475972540046</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9171196594819329</v>
+        <v>0.9169896434493833</v>
       </c>
       <c r="E20" t="n">
-        <v>0.936880244088482</v>
+        <v>0.9416475972540046</v>
       </c>
       <c r="F20" t="n">
-        <v>0.909526059240098</v>
+        <v>0.9158621823840036</v>
       </c>
     </row>
     <row r="21">
@@ -888,16 +888,16 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.9607170099160945</v>
+        <v>0.9567124332570557</v>
       </c>
       <c r="D21" t="n">
-        <v>0.957308156077583</v>
+        <v>0.9522055466910283</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9607170099160945</v>
+        <v>0.9567124332570557</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9461394883048011</v>
+        <v>0.9405765519549333</v>
       </c>
     </row>
     <row r="22">
@@ -910,16 +910,16 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.9588100686498856</v>
+        <v>0.9614797864225781</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9514530315340987</v>
+        <v>0.9542257638150171</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9588100686498856</v>
+        <v>0.9614797864225781</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9489774683228951</v>
+        <v>0.9512069848195025</v>
       </c>
     </row>
     <row r="23">
@@ -932,16 +932,16 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.9807398932112891</v>
+        <v>0.9776887871853547</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9768986837335316</v>
+        <v>0.9708385030662116</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9807398932112891</v>
+        <v>0.9776887871853547</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9732673543363756</v>
+        <v>0.9689622312535314</v>
       </c>
     </row>
     <row r="24">
@@ -954,16 +954,16 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.9931350114416476</v>
+        <v>0.9940884820747521</v>
       </c>
       <c r="D24" t="n">
-        <v>0.993182139509554</v>
+        <v>0.9941234281189326</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9931350114416476</v>
+        <v>0.9940884820747521</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9897143397604479</v>
+        <v>0.9911414855227471</v>
       </c>
     </row>
     <row r="25">
@@ -976,16 +976,16 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.9897025171624714</v>
+        <v>0.988558352402746</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9798866615659716</v>
+        <v>0.9886892637024858</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9897025171624714</v>
+        <v>0.988558352402746</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9847701296895512</v>
+        <v>0.9828704447364472</v>
       </c>
     </row>
     <row r="26">
@@ -998,16 +998,16 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.9952326468344775</v>
+        <v>0.9958047292143402</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9952553744906822</v>
+        <v>0.9958223295113052</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9952326468344775</v>
+        <v>0.9958047292143402</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9928546657419742</v>
+        <v>0.9937115031449043</v>
       </c>
     </row>
     <row r="27">
@@ -1020,16 +1020,16 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.990465293668955</v>
+        <v>0.9916094584286804</v>
       </c>
       <c r="D27" t="n">
-        <v>0.9905562042937743</v>
+        <v>0.9916798596165404</v>
       </c>
       <c r="E27" t="n">
-        <v>0.990465293668955</v>
+        <v>0.9916094584286804</v>
       </c>
       <c r="F27" t="n">
-        <v>0.9857207770294218</v>
+        <v>0.9874318620890727</v>
       </c>
     </row>
     <row r="28">
@@ -1042,16 +1042,16 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.9557589626239512</v>
+        <v>0.9597635392829901</v>
       </c>
       <c r="D28" t="n">
-        <v>0.9480073465504215</v>
+        <v>0.9378602131610178</v>
       </c>
       <c r="E28" t="n">
-        <v>0.9557589626239512</v>
+        <v>0.9597635392829901</v>
       </c>
       <c r="F28" t="n">
-        <v>0.9357494494700589</v>
+        <v>0.9409825043307229</v>
       </c>
     </row>
     <row r="29">
@@ -1064,16 +1064,16 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.8710907704042715</v>
+        <v>0.8779557589626239</v>
       </c>
       <c r="D29" t="n">
-        <v>0.870557247257468</v>
+        <v>0.8762972776461877</v>
       </c>
       <c r="E29" t="n">
-        <v>0.8710907704042715</v>
+        <v>0.8779557589626239</v>
       </c>
       <c r="F29" t="n">
-        <v>0.864849965500176</v>
+        <v>0.8730217121245571</v>
       </c>
     </row>
     <row r="30">
@@ -1086,16 +1086,16 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0.9464149504195271</v>
+        <v>0.9496567505720824</v>
       </c>
       <c r="D30" t="n">
-        <v>0.9461331094188488</v>
+        <v>0.9477617430504763</v>
       </c>
       <c r="E30" t="n">
-        <v>0.9464149504195271</v>
+        <v>0.9496567505720824</v>
       </c>
       <c r="F30" t="n">
-        <v>0.9367301435516877</v>
+        <v>0.9409516039274155</v>
       </c>
     </row>
     <row r="31">
@@ -1108,16 +1108,16 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0.9315408085430968</v>
+        <v>0.9349733028222731</v>
       </c>
       <c r="D31" t="n">
-        <v>0.9239993681313369</v>
+        <v>0.9279040987324116</v>
       </c>
       <c r="E31" t="n">
-        <v>0.9315408085430968</v>
+        <v>0.9349733028222731</v>
       </c>
       <c r="F31" t="n">
-        <v>0.9219083893364928</v>
+        <v>0.928159378856373</v>
       </c>
     </row>
     <row r="32">
@@ -1130,16 +1130,16 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0.9912280701754386</v>
+        <v>0.9887490465293669</v>
       </c>
       <c r="D32" t="n">
-        <v>0.9885032654140598</v>
+        <v>0.9818709957326138</v>
       </c>
       <c r="E32" t="n">
-        <v>0.9912280701754386</v>
+        <v>0.9887490465293669</v>
       </c>
       <c r="F32" t="n">
-        <v>0.9873869095040725</v>
+        <v>0.9837065684560391</v>
       </c>
     </row>
     <row r="33">
@@ -1152,16 +1152,16 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0.9605263157894737</v>
+        <v>0.9633867276887872</v>
       </c>
       <c r="D33" t="n">
-        <v>0.9586272939750693</v>
+        <v>0.9615656639301016</v>
       </c>
       <c r="E33" t="n">
-        <v>0.9605263157894737</v>
+        <v>0.9633867276887872</v>
       </c>
       <c r="F33" t="n">
-        <v>0.9581335039687298</v>
+        <v>0.9614766962832129</v>
       </c>
     </row>
     <row r="34">
@@ -1174,16 +1174,16 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0.9794050343249427</v>
+        <v>0.9816933638443935</v>
       </c>
       <c r="D34" t="n">
-        <v>0.9798298349920371</v>
+        <v>0.9778791162772767</v>
       </c>
       <c r="E34" t="n">
-        <v>0.9794050343249427</v>
+        <v>0.9816933638443935</v>
       </c>
       <c r="F34" t="n">
-        <v>0.9705435657957914</v>
+        <v>0.9755218295060007</v>
       </c>
     </row>
     <row r="35">
@@ -1196,16 +1196,16 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0.9496567505720824</v>
+        <v>0.9483218916857361</v>
       </c>
       <c r="D35" t="n">
-        <v>0.9411202590865966</v>
+        <v>0.931710033701681</v>
       </c>
       <c r="E35" t="n">
-        <v>0.9496567505720824</v>
+        <v>0.9483218916857361</v>
       </c>
       <c r="F35" t="n">
-        <v>0.9267559445026519</v>
+        <v>0.9254847687485835</v>
       </c>
     </row>
     <row r="36">
@@ -1218,16 +1218,16 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0.8775743707093822</v>
+        <v>0.8783371472158658</v>
       </c>
       <c r="D36" t="n">
-        <v>0.8699203147894478</v>
+        <v>0.8714589481723691</v>
       </c>
       <c r="E36" t="n">
-        <v>0.8775743707093822</v>
+        <v>0.8783371472158658</v>
       </c>
       <c r="F36" t="n">
-        <v>0.8666279870380813</v>
+        <v>0.8679578127225239</v>
       </c>
     </row>
   </sheetData>

--- a/models/metrics_file.xlsx
+++ b/models/metrics_file.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F36"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -470,16 +470,16 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.8194126620900076</v>
+        <v>0.9595728451563692</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8092311618961743</v>
+        <v>0.9603048756969134</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8194126620900076</v>
+        <v>0.9595728451563692</v>
       </c>
       <c r="F2" t="n">
-        <v>0.8036018981868304</v>
+        <v>0.9586412753988786</v>
       </c>
     </row>
     <row r="3">
@@ -492,16 +492,16 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.9126620900076278</v>
+        <v>0.9799771167048055</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9083635286136263</v>
+        <v>0.9802051708731796</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9126620900076278</v>
+        <v>0.9799771167048055</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9070947690668929</v>
+        <v>0.9795352373269315</v>
       </c>
     </row>
     <row r="4">
@@ -514,16 +514,16 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.9944698703279939</v>
+        <v>0.9992372234935164</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9945004526621831</v>
+        <v>0.9992378072138199</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9944698703279939</v>
+        <v>0.9992372234935164</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9917124722746894</v>
+        <v>0.9991972233475304</v>
       </c>
     </row>
     <row r="5">
@@ -536,16 +536,16 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.7841342486651411</v>
+        <v>0.9513729977116705</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7827531428937272</v>
+        <v>0.9517977840797013</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7841342486651411</v>
+        <v>0.9513729977116705</v>
       </c>
       <c r="F5" t="n">
-        <v>0.7817840011395607</v>
+        <v>0.9511717820125447</v>
       </c>
     </row>
     <row r="6">
@@ -558,16 +558,16 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.9250572082379863</v>
+        <v>0.9824561403508771</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9073559152752986</v>
+        <v>0.9825977260543096</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9250572082379863</v>
+        <v>0.9824561403508771</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9037099821109237</v>
+        <v>0.981488530600351</v>
       </c>
     </row>
     <row r="7">
@@ -580,16 +580,16 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.9555682684973302</v>
+        <v>0.9891304347826086</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9489041095284556</v>
+        <v>0.9891966387162929</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9555682684973302</v>
+        <v>0.9891304347826086</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9428646393510877</v>
+        <v>0.988525640446135</v>
       </c>
     </row>
     <row r="8">
@@ -602,16 +602,16 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.9742562929061785</v>
+        <v>0.9938977879481312</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9717691899278484</v>
+        <v>0.9938851259292474</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9742562929061785</v>
+        <v>0.9938977879481312</v>
       </c>
       <c r="F8" t="n">
-        <v>0.964074742602445</v>
+        <v>0.9935702286878385</v>
       </c>
     </row>
     <row r="9">
@@ -624,16 +624,16 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.9818840579710145</v>
+        <v>0.9963768115942029</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9822122453266121</v>
+        <v>0.9963901321398124</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9818840579710145</v>
+        <v>0.9963768115942029</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9729088837665262</v>
+        <v>0.9961788596186867</v>
       </c>
     </row>
     <row r="10">
@@ -646,16 +646,16 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.9687261632341724</v>
+        <v>0.9937070938215103</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9570251969241007</v>
+        <v>0.9937479568486435</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9687261632341724</v>
+        <v>0.9937070938215103</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9563732405209623</v>
+        <v>0.9934264942494861</v>
       </c>
     </row>
     <row r="11">
@@ -664,20 +664,20 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>water</t>
+          <t>child_alone</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.9616704805491991</v>
+        <v>1</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9578122629606927</v>
+        <v>1</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9616704805491991</v>
+        <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9578930108962237</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -686,20 +686,20 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>food</t>
+          <t>water</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.9437452326468345</v>
+        <v>0.990465293668955</v>
       </c>
       <c r="D12" t="n">
-        <v>0.940452628474751</v>
+        <v>0.9905224097841747</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9437452326468345</v>
+        <v>0.990465293668955</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9389405536331312</v>
+        <v>0.9901070479068079</v>
       </c>
     </row>
     <row r="13">
@@ -708,20 +708,20 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>shelter</t>
+          <t>food</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.9492753623188406</v>
+        <v>0.9832189168573608</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9445319279592519</v>
+        <v>0.9832201590786473</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9492753623188406</v>
+        <v>0.9832189168573608</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9428526768264641</v>
+        <v>0.9827701826134044</v>
       </c>
     </row>
     <row r="14">
@@ -730,20 +730,20 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>clothing</t>
+          <t>shelter</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.9868421052631579</v>
+        <v>0.9853165522501907</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9857304466745773</v>
+        <v>0.9854185021883204</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9868421052631579</v>
+        <v>0.9853165522501907</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9818179391169111</v>
+        <v>0.9847566585257136</v>
       </c>
     </row>
     <row r="15">
@@ -752,20 +752,20 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>money</t>
+          <t>clothing</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.9759725400457666</v>
+        <v>0.9969488939740656</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9677757778416707</v>
+        <v>0.9969232772979159</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9759725400457666</v>
+        <v>0.9969488939740656</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9665940723770488</v>
+        <v>0.9968282190819312</v>
       </c>
     </row>
     <row r="16">
@@ -774,20 +774,20 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>missing_people</t>
+          <t>money</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.9868421052631579</v>
+        <v>0.9946605644546148</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9870152684782718</v>
+        <v>0.9946896113159459</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9868421052631579</v>
+        <v>0.9946605644546148</v>
       </c>
       <c r="F16" t="n">
-        <v>0.980492057908706</v>
+        <v>0.994331124815392</v>
       </c>
     </row>
     <row r="17">
@@ -796,20 +796,20 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>refugees</t>
+          <t>missing_people</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.967581998474447</v>
+        <v>0.9971395881006865</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9573283438476649</v>
+        <v>0.9971478297792286</v>
       </c>
       <c r="E17" t="n">
-        <v>0.967581998474447</v>
+        <v>0.9971395881006865</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9535658691269763</v>
+        <v>0.9969059032594787</v>
       </c>
     </row>
     <row r="18">
@@ -818,20 +818,20 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>death</t>
+          <t>refugees</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.9689168573607932</v>
+        <v>0.9912280701754386</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9677112560990063</v>
+        <v>0.9913070347100629</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9689168573607932</v>
+        <v>0.9912280701754386</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9617445066986648</v>
+        <v>0.9906053706736443</v>
       </c>
     </row>
     <row r="19">
@@ -840,20 +840,20 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>other_aid</t>
+          <t>death</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.8735697940503433</v>
+        <v>0.9910373760488177</v>
       </c>
       <c r="D19" t="n">
-        <v>0.8448609937847542</v>
+        <v>0.9910676521305324</v>
       </c>
       <c r="E19" t="n">
-        <v>0.8735697940503433</v>
+        <v>0.9910373760488177</v>
       </c>
       <c r="F19" t="n">
-        <v>0.8347413442608785</v>
+        <v>0.9905594524006556</v>
       </c>
     </row>
     <row r="20">
@@ -862,20 +862,20 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>infrastructure_related</t>
+          <t>other_aid</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.9416475972540046</v>
+        <v>0.971205186880244</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9169896434493833</v>
+        <v>0.9719134071599742</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9416475972540046</v>
+        <v>0.971205186880244</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9158621823840036</v>
+        <v>0.9696769021362707</v>
       </c>
     </row>
     <row r="21">
@@ -884,20 +884,20 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>transport</t>
+          <t>infrastructure_related</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.9567124332570557</v>
+        <v>0.9881769641495042</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9522055466910283</v>
+        <v>0.9882719908148445</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9567124332570557</v>
+        <v>0.9881769641495042</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9405765519549333</v>
+        <v>0.9875904614636357</v>
       </c>
     </row>
     <row r="22">
@@ -906,20 +906,20 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>buildings</t>
+          <t>transport</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.9614797864225781</v>
+        <v>0.9898932112890922</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9542257638150171</v>
+        <v>0.9898891438520425</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9614797864225781</v>
+        <v>0.9898932112890922</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9512069848195025</v>
+        <v>0.98934063345762</v>
       </c>
     </row>
     <row r="23">
@@ -928,20 +928,20 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>electricity</t>
+          <t>buildings</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.9776887871853547</v>
+        <v>0.9921815408085431</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9708385030662116</v>
+        <v>0.9921418500675491</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9776887871853547</v>
+        <v>0.9921815408085431</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9689622312535314</v>
+        <v>0.9919095677280201</v>
       </c>
     </row>
     <row r="24">
@@ -950,20 +950,20 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>tools</t>
+          <t>electricity</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.9940884820747521</v>
+        <v>0.9959954233409611</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9941234281189326</v>
+        <v>0.9960117495125472</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9940884820747521</v>
+        <v>0.9959954233409611</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9911414855227471</v>
+        <v>0.9957963825207328</v>
       </c>
     </row>
     <row r="25">
@@ -972,20 +972,20 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>hospitals</t>
+          <t>tools</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.988558352402746</v>
+        <v>0.9994279176201373</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9886892637024858</v>
+        <v>0.999428246340141</v>
       </c>
       <c r="E25" t="n">
-        <v>0.988558352402746</v>
+        <v>0.9994279176201373</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9828704447364472</v>
+        <v>0.9994104870978412</v>
       </c>
     </row>
     <row r="26">
@@ -994,20 +994,20 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>shops</t>
+          <t>hospitals</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.9958047292143402</v>
+        <v>0.9982837528604119</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9958223295113052</v>
+        <v>0.9982867221461206</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9958047292143402</v>
+        <v>0.9982837528604119</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9937115031449043</v>
+        <v>0.9982014516081099</v>
       </c>
     </row>
     <row r="27">
@@ -1016,20 +1016,20 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>aid_centers</t>
+          <t>shops</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.9916094584286804</v>
+        <v>0.9992372234935164</v>
       </c>
       <c r="D27" t="n">
-        <v>0.9916798596165404</v>
+        <v>0.9992378072138199</v>
       </c>
       <c r="E27" t="n">
-        <v>0.9916094584286804</v>
+        <v>0.9992372234935164</v>
       </c>
       <c r="F27" t="n">
-        <v>0.9874318620890727</v>
+        <v>0.9991972233475304</v>
       </c>
     </row>
     <row r="28">
@@ -1038,20 +1038,20 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>other_infrastructure</t>
+          <t>aid_centers</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.9597635392829901</v>
+        <v>0.9988558352402745</v>
       </c>
       <c r="D28" t="n">
-        <v>0.9378602131610178</v>
+        <v>0.998857156955438</v>
       </c>
       <c r="E28" t="n">
-        <v>0.9597635392829901</v>
+        <v>0.9988558352402745</v>
       </c>
       <c r="F28" t="n">
-        <v>0.9409825043307229</v>
+        <v>0.9988237838385262</v>
       </c>
     </row>
     <row r="29">
@@ -1060,20 +1060,20 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>weather_related</t>
+          <t>other_infrastructure</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.8779557589626239</v>
+        <v>0.9910373760488177</v>
       </c>
       <c r="D29" t="n">
-        <v>0.8762972776461877</v>
+        <v>0.9911204123834729</v>
       </c>
       <c r="E29" t="n">
-        <v>0.8779557589626239</v>
+        <v>0.9910373760488177</v>
       </c>
       <c r="F29" t="n">
-        <v>0.8730217121245571</v>
+        <v>0.9905167878803487</v>
       </c>
     </row>
     <row r="30">
@@ -1082,20 +1082,20 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>floods</t>
+          <t>weather_related</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0.9496567505720824</v>
+        <v>0.9744469870327994</v>
       </c>
       <c r="D30" t="n">
-        <v>0.9477617430504763</v>
+        <v>0.9744708127006981</v>
       </c>
       <c r="E30" t="n">
-        <v>0.9496567505720824</v>
+        <v>0.9744469870327994</v>
       </c>
       <c r="F30" t="n">
-        <v>0.9409516039274155</v>
+        <v>0.9742492053813423</v>
       </c>
     </row>
     <row r="31">
@@ -1104,20 +1104,20 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>storm</t>
+          <t>floods</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0.9349733028222731</v>
+        <v>0.9898932112890922</v>
       </c>
       <c r="D31" t="n">
-        <v>0.9279040987324116</v>
+        <v>0.9899390364995758</v>
       </c>
       <c r="E31" t="n">
-        <v>0.9349733028222731</v>
+        <v>0.9898932112890922</v>
       </c>
       <c r="F31" t="n">
-        <v>0.928159378856373</v>
+        <v>0.98959753153796</v>
       </c>
     </row>
     <row r="32">
@@ -1126,20 +1126,20 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>fire</t>
+          <t>storm</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0.9887490465293669</v>
+        <v>0.9832189168573608</v>
       </c>
       <c r="D32" t="n">
-        <v>0.9818709957326138</v>
+        <v>0.9830433084551015</v>
       </c>
       <c r="E32" t="n">
-        <v>0.9887490465293669</v>
+        <v>0.9832189168573608</v>
       </c>
       <c r="F32" t="n">
-        <v>0.9837065684560391</v>
+        <v>0.9826517390711269</v>
       </c>
     </row>
     <row r="33">
@@ -1148,20 +1148,20 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>earthquake</t>
+          <t>fire</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0.9633867276887872</v>
+        <v>0.9982837528604119</v>
       </c>
       <c r="D33" t="n">
-        <v>0.9615656639301016</v>
+        <v>0.9982867278650838</v>
       </c>
       <c r="E33" t="n">
-        <v>0.9633867276887872</v>
+        <v>0.9982837528604119</v>
       </c>
       <c r="F33" t="n">
-        <v>0.9614766962832129</v>
+        <v>0.9982161511317338</v>
       </c>
     </row>
     <row r="34">
@@ -1170,20 +1170,20 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>cold</t>
+          <t>earthquake</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0.9816933638443935</v>
+        <v>0.9940884820747521</v>
       </c>
       <c r="D34" t="n">
-        <v>0.9778791162772767</v>
+        <v>0.9940771927683076</v>
       </c>
       <c r="E34" t="n">
-        <v>0.9816933638443935</v>
+        <v>0.9940884820747521</v>
       </c>
       <c r="F34" t="n">
-        <v>0.9755218295060007</v>
+        <v>0.9940271802031352</v>
       </c>
     </row>
     <row r="35">
@@ -1192,20 +1192,20 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>other_weather</t>
+          <t>cold</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0.9483218916857361</v>
+        <v>0.9963768115942029</v>
       </c>
       <c r="D35" t="n">
-        <v>0.931710033701681</v>
+        <v>0.996390165731877</v>
       </c>
       <c r="E35" t="n">
-        <v>0.9483218916857361</v>
+        <v>0.9963768115942029</v>
       </c>
       <c r="F35" t="n">
-        <v>0.9254847687485835</v>
+        <v>0.9962054340089406</v>
       </c>
     </row>
     <row r="36">
@@ -1214,20 +1214,42 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
+          <t>other_weather</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>0.9877955758962624</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0.987885407786303</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.9877955758962624</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.9870283689790077</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
           <t>direct_report</t>
         </is>
       </c>
-      <c r="C36" t="n">
-        <v>0.8783371472158658</v>
-      </c>
-      <c r="D36" t="n">
-        <v>0.8714589481723691</v>
-      </c>
-      <c r="E36" t="n">
-        <v>0.8783371472158658</v>
-      </c>
-      <c r="F36" t="n">
-        <v>0.8679578127225239</v>
+      <c r="C37" t="n">
+        <v>0.9729214340198322</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0.9734874411407183</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.9729214340198322</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.9722181116157896</v>
       </c>
     </row>
   </sheetData>

--- a/models/metrics_file.xlsx
+++ b/models/metrics_file.xlsx
@@ -470,16 +470,16 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.9595728451563692</v>
+        <v>0.9610983981693364</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9603048756969134</v>
+        <v>0.9614686212176559</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9595728451563692</v>
+        <v>0.9610983981693364</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9586412753988786</v>
+        <v>0.9602613857752854</v>
       </c>
     </row>
     <row r="3">
@@ -492,16 +492,16 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.9799771167048055</v>
+        <v>0.9794050343249427</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9802051708731796</v>
+        <v>0.9795578020533958</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9799771167048055</v>
+        <v>0.9794050343249427</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9795352373269315</v>
+        <v>0.9790161131238534</v>
       </c>
     </row>
     <row r="4">
@@ -514,16 +514,16 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.9992372234935164</v>
+        <v>0.9988558352402745</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9992378072138199</v>
+        <v>0.9988571491136828</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9992372234935164</v>
+        <v>0.9988558352402745</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9991972233475304</v>
+        <v>0.9987781526637115</v>
       </c>
     </row>
     <row r="5">
@@ -536,16 +536,16 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.9513729977116705</v>
+        <v>0.9590007627765065</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9517977840797013</v>
+        <v>0.9590672423841434</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9513729977116705</v>
+        <v>0.9590007627765065</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9511717820125447</v>
+        <v>0.9589334073701533</v>
       </c>
     </row>
     <row r="6">
@@ -558,16 +558,16 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.9824561403508771</v>
+        <v>0.982837528604119</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9825977260543096</v>
+        <v>0.9830387022797661</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9824561403508771</v>
+        <v>0.982837528604119</v>
       </c>
       <c r="F6" t="n">
-        <v>0.981488530600351</v>
+        <v>0.981974680149756</v>
       </c>
     </row>
     <row r="7">
@@ -580,16 +580,16 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.9891304347826086</v>
+        <v>0.9893211289092296</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9891966387162929</v>
+        <v>0.9893029321775226</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9891304347826086</v>
+        <v>0.9893211289092296</v>
       </c>
       <c r="F7" t="n">
-        <v>0.988525640446135</v>
+        <v>0.9888442183535571</v>
       </c>
     </row>
     <row r="8">
@@ -602,16 +602,16 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.9938977879481312</v>
+        <v>0.9937070938215103</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9938851259292474</v>
+        <v>0.9936993144018478</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9938977879481312</v>
+        <v>0.9937070938215103</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9935702286878385</v>
+        <v>0.9933860189153357</v>
       </c>
     </row>
     <row r="9">
@@ -624,16 +624,16 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.9963768115942029</v>
+        <v>0.9975209763539283</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9963901321398124</v>
+        <v>0.9974982465586499</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9963768115942029</v>
+        <v>0.9975209763539283</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9961788596186867</v>
+        <v>0.9974386488620747</v>
       </c>
     </row>
     <row r="10">
@@ -646,16 +646,16 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.9937070938215103</v>
+        <v>0.9950419527078566</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9937479568486435</v>
+        <v>0.9950334815486824</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9937070938215103</v>
+        <v>0.9950419527078566</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9934264942494861</v>
+        <v>0.9948618772884045</v>
       </c>
     </row>
     <row r="11">
@@ -690,16 +690,16 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.990465293668955</v>
+        <v>0.9900839054157132</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9905224097841747</v>
+        <v>0.9901883276349078</v>
       </c>
       <c r="E12" t="n">
-        <v>0.990465293668955</v>
+        <v>0.9900839054157132</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9901070479068079</v>
+        <v>0.9897218683393449</v>
       </c>
     </row>
     <row r="13">
@@ -712,16 +712,16 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.9832189168573608</v>
+        <v>0.9879862700228833</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9832201590786473</v>
+        <v>0.9879331871168294</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9832189168573608</v>
+        <v>0.9879862700228833</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9827701826134044</v>
+        <v>0.987792648483144</v>
       </c>
     </row>
     <row r="14">
@@ -734,16 +734,16 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.9853165522501907</v>
+        <v>0.9858886346300534</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9854185021883204</v>
+        <v>0.985890248708102</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9853165522501907</v>
+        <v>0.9858886346300534</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9847566585257136</v>
+        <v>0.9854588633226952</v>
       </c>
     </row>
     <row r="15">
@@ -756,16 +756,16 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.9969488939740656</v>
+        <v>0.9973302822273074</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9969232772979159</v>
+        <v>0.9973375158345879</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9969488939740656</v>
+        <v>0.9973302822273074</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9968282190819312</v>
+        <v>0.997220854841857</v>
       </c>
     </row>
     <row r="16">
@@ -778,16 +778,16 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.9946605644546148</v>
+        <v>0.9958047292143402</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9946896113159459</v>
+        <v>0.9957829141587861</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9946605644546148</v>
+        <v>0.9958047292143402</v>
       </c>
       <c r="F16" t="n">
-        <v>0.994331124815392</v>
+        <v>0.9956215277043468</v>
       </c>
     </row>
     <row r="17">
@@ -800,16 +800,16 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.9971395881006865</v>
+        <v>0.9969488939740656</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9971478297792286</v>
+        <v>0.9969582928374492</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9971395881006865</v>
+        <v>0.9969488939740656</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9969059032594787</v>
+        <v>0.996740826209381</v>
       </c>
     </row>
     <row r="18">
@@ -822,16 +822,16 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.9912280701754386</v>
+        <v>0.9956140350877193</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9913070347100629</v>
+        <v>0.9956338265715299</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9912280701754386</v>
+        <v>0.9956140350877193</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9906053706736443</v>
+        <v>0.9954598818556766</v>
       </c>
     </row>
     <row r="19">
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.9910373760488177</v>
+        <v>0.9918001525553013</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9910676521305324</v>
+        <v>0.9918703343706122</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9910373760488177</v>
+        <v>0.9918001525553013</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9905594524006556</v>
+        <v>0.9914527698556737</v>
       </c>
     </row>
     <row r="20">
@@ -866,16 +866,16 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.971205186880244</v>
+        <v>0.9729214340198322</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9719134071599742</v>
+        <v>0.9737448079746895</v>
       </c>
       <c r="E20" t="n">
-        <v>0.971205186880244</v>
+        <v>0.9729214340198322</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9696769021362707</v>
+        <v>0.9716400846631509</v>
       </c>
     </row>
     <row r="21">
@@ -888,16 +888,16 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.9881769641495042</v>
+        <v>0.9864607170099161</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9882719908148445</v>
+        <v>0.9865962758749373</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9881769641495042</v>
+        <v>0.9864607170099161</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9875904614636357</v>
+        <v>0.985730747981579</v>
       </c>
     </row>
     <row r="22">
@@ -910,16 +910,16 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.9898932112890922</v>
+        <v>0.988558352402746</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9898891438520425</v>
+        <v>0.9886318138113294</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9898932112890922</v>
+        <v>0.988558352402746</v>
       </c>
       <c r="F22" t="n">
-        <v>0.98934063345762</v>
+        <v>0.9878605666067279</v>
       </c>
     </row>
     <row r="23">
@@ -932,16 +932,16 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.9921815408085431</v>
+        <v>0.9900839054157132</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9921418500675491</v>
+        <v>0.9900893476441833</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9921815408085431</v>
+        <v>0.9900839054157132</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9919095677280201</v>
+        <v>0.9896077043630818</v>
       </c>
     </row>
     <row r="24">
@@ -954,16 +954,16 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.9959954233409611</v>
+        <v>0.9973302822273074</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9960117495125472</v>
+        <v>0.9973375298613616</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9959954233409611</v>
+        <v>0.9973302822273074</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9957963825207328</v>
+        <v>0.9972326922134557</v>
       </c>
     </row>
     <row r="25">
@@ -976,16 +976,16 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.9994279176201373</v>
+        <v>0.9986651411136537</v>
       </c>
       <c r="D25" t="n">
-        <v>0.999428246340141</v>
+        <v>0.9986669345900845</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9994279176201373</v>
+        <v>0.9986651411136537</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9994104870978412</v>
+        <v>0.9986032963694753</v>
       </c>
     </row>
     <row r="26">
@@ -998,16 +998,16 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.9982837528604119</v>
+        <v>0.9984744469870328</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9982867221461206</v>
+        <v>0.9984767939916682</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9982837528604119</v>
+        <v>0.9984744469870328</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9982014516081099</v>
+        <v>0.9984114694810127</v>
       </c>
     </row>
     <row r="27">
@@ -1020,16 +1020,16 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.9992372234935164</v>
+        <v>0.9988558352402745</v>
       </c>
       <c r="D27" t="n">
-        <v>0.9992378072138199</v>
+        <v>0.9988571491136828</v>
       </c>
       <c r="E27" t="n">
-        <v>0.9992372234935164</v>
+        <v>0.9988558352402745</v>
       </c>
       <c r="F27" t="n">
-        <v>0.9991972233475304</v>
+        <v>0.9987781526637115</v>
       </c>
     </row>
     <row r="28">
@@ -1042,16 +1042,16 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.9988558352402745</v>
+        <v>0.9979023646071701</v>
       </c>
       <c r="D28" t="n">
-        <v>0.998857156955438</v>
+        <v>0.9979068070386914</v>
       </c>
       <c r="E28" t="n">
-        <v>0.9988558352402745</v>
+        <v>0.9979023646071701</v>
       </c>
       <c r="F28" t="n">
-        <v>0.9988237838385262</v>
+        <v>0.9977995395035014</v>
       </c>
     </row>
     <row r="29">
@@ -1064,16 +1064,16 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.9910373760488177</v>
+        <v>0.9900839054157132</v>
       </c>
       <c r="D29" t="n">
-        <v>0.9911204123834729</v>
+        <v>0.9901272713322234</v>
       </c>
       <c r="E29" t="n">
-        <v>0.9910373760488177</v>
+        <v>0.9900839054157132</v>
       </c>
       <c r="F29" t="n">
-        <v>0.9905167878803487</v>
+        <v>0.9895068038989967</v>
       </c>
     </row>
     <row r="30">
@@ -1086,16 +1086,16 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0.9744469870327994</v>
+        <v>0.9731121281464531</v>
       </c>
       <c r="D30" t="n">
-        <v>0.9744708127006981</v>
+        <v>0.9733276997163469</v>
       </c>
       <c r="E30" t="n">
-        <v>0.9744469870327994</v>
+        <v>0.9731121281464531</v>
       </c>
       <c r="F30" t="n">
-        <v>0.9742492053813423</v>
+        <v>0.9728516613925116</v>
       </c>
     </row>
     <row r="31">
@@ -1108,16 +1108,16 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0.9898932112890922</v>
+        <v>0.9887490465293669</v>
       </c>
       <c r="D31" t="n">
-        <v>0.9899390364995758</v>
+        <v>0.9887600503347537</v>
       </c>
       <c r="E31" t="n">
-        <v>0.9898932112890922</v>
+        <v>0.9887490465293669</v>
       </c>
       <c r="F31" t="n">
-        <v>0.98959753153796</v>
+        <v>0.9884351757961887</v>
       </c>
     </row>
     <row r="32">
@@ -1130,16 +1130,16 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0.9832189168573608</v>
+        <v>0.9874141876430206</v>
       </c>
       <c r="D32" t="n">
-        <v>0.9830433084551015</v>
+        <v>0.987258216629961</v>
       </c>
       <c r="E32" t="n">
-        <v>0.9832189168573608</v>
+        <v>0.9874141876430206</v>
       </c>
       <c r="F32" t="n">
-        <v>0.9826517390711269</v>
+        <v>0.9871746138310818</v>
       </c>
     </row>
     <row r="33">
@@ -1152,16 +1152,16 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0.9982837528604119</v>
+        <v>0.9986651411136537</v>
       </c>
       <c r="D33" t="n">
-        <v>0.9982867278650838</v>
+        <v>0.9986669390763637</v>
       </c>
       <c r="E33" t="n">
-        <v>0.9982837528604119</v>
+        <v>0.9986651411136537</v>
       </c>
       <c r="F33" t="n">
-        <v>0.9982161511317338</v>
+        <v>0.998619333421091</v>
       </c>
     </row>
     <row r="34">
@@ -1174,16 +1174,16 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0.9940884820747521</v>
+        <v>0.9935163996948894</v>
       </c>
       <c r="D34" t="n">
-        <v>0.9940771927683076</v>
+        <v>0.9934801213779205</v>
       </c>
       <c r="E34" t="n">
-        <v>0.9940884820747521</v>
+        <v>0.9935163996948894</v>
       </c>
       <c r="F34" t="n">
-        <v>0.9940271802031352</v>
+        <v>0.9934881668919573</v>
       </c>
     </row>
     <row r="35">
@@ -1199,13 +1199,13 @@
         <v>0.9963768115942029</v>
       </c>
       <c r="D35" t="n">
-        <v>0.996390165731877</v>
+        <v>0.9963536549221774</v>
       </c>
       <c r="E35" t="n">
         <v>0.9963768115942029</v>
       </c>
       <c r="F35" t="n">
-        <v>0.9962054340089406</v>
+        <v>0.9962295767840115</v>
       </c>
     </row>
     <row r="36">
@@ -1218,16 +1218,16 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0.9877955758962624</v>
+        <v>0.9887490465293669</v>
       </c>
       <c r="D36" t="n">
-        <v>0.987885407786303</v>
+        <v>0.9888246208345635</v>
       </c>
       <c r="E36" t="n">
-        <v>0.9877955758962624</v>
+        <v>0.9887490465293669</v>
       </c>
       <c r="F36" t="n">
-        <v>0.9870283689790077</v>
+        <v>0.9881307176983142</v>
       </c>
     </row>
     <row r="37">
@@ -1240,16 +1240,16 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0.9729214340198322</v>
+        <v>0.9731121281464531</v>
       </c>
       <c r="D37" t="n">
-        <v>0.9734874411407183</v>
+        <v>0.9733036207132412</v>
       </c>
       <c r="E37" t="n">
-        <v>0.9729214340198322</v>
+        <v>0.9731121281464531</v>
       </c>
       <c r="F37" t="n">
-        <v>0.9722181116157896</v>
+        <v>0.9725707615990664</v>
       </c>
     </row>
   </sheetData>
